--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/70.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/70.xlsx
@@ -479,13 +479,13 @@
         <v>-5.018908837381394</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.623797857261319</v>
+        <v>-8.857757309042965</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.059621518739107</v>
+        <v>-3.015055319865872</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.438650052714834</v>
+        <v>-5.486999927109329</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.868812261478108</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.867995489865194</v>
+        <v>-9.118844012312666</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.153362407085866</v>
+        <v>-3.094512505812307</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.366446002542715</v>
+        <v>-5.429249779274476</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.786283409506841</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.687115417157786</v>
+        <v>-9.929179004398458</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.040572218104396</v>
+        <v>-2.978017195126629</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.242186956271893</v>
+        <v>-5.29236975306423</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.77018080404331</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.45736177794221</v>
+        <v>-10.6895144919317</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.940717224330551</v>
+        <v>-2.884302491385554</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.449896340855878</v>
+        <v>-5.513276178912673</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.790938900639951</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.23491364371232</v>
+        <v>-11.46607134268584</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.787589650293723</v>
+        <v>-2.738545883848617</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.003802306129745</v>
+        <v>-5.067391621032009</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.828412951700562</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.89435984554722</v>
+        <v>-12.12257177638135</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.757961768962897</v>
+        <v>-2.710174863590597</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.141376224390602</v>
+        <v>-5.191585205788622</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.862178813775241</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.39274453782321</v>
+        <v>-12.62699202026737</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.636137891020636</v>
+        <v>-2.584960079212329</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.701068987520513</v>
+        <v>-4.749510508034899</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.874160327703966</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.36778069965792</v>
+        <v>-13.58915844840866</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.385171537847589</v>
+        <v>-2.340304216008994</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.6192028178512</v>
+        <v>-4.65333445135958</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.851573288995505</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.11571777640004</v>
+        <v>-14.32958054331964</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.362469484720036</v>
+        <v>-2.324213775816512</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.249803493171899</v>
+        <v>-4.25239576913456</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.790264685062354</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.81271270278502</v>
+        <v>-15.02690277727566</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.183052566577022</v>
+        <v>-2.145909703415045</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.034998080447699</v>
+        <v>-4.044319800071008</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.691217690239715</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.47924184045729</v>
+        <v>-15.68458151822692</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.167669110737994</v>
+        <v>-2.143513811995009</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.520326563436606</v>
+        <v>-3.530315990504843</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.557949815581599</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.44987898853718</v>
+        <v>-16.65125169854577</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.003138140926022</v>
+        <v>-1.971310752717786</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.878725170374978</v>
+        <v>-2.893715857128754</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.401340878084899</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.09290744260855</v>
+        <v>-17.27635679002682</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.721378691469236</v>
+        <v>-1.703337498153337</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.513803413267548</v>
+        <v>-2.507008508092692</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.233390392546307</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.99859367629064</v>
+        <v>-18.17540522616815</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.550236108722192</v>
+        <v>-1.536751036795214</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.916008865514335</v>
+        <v>-1.91847021844858</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.063222715216087</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.91679615148941</v>
+        <v>-19.08380156653847</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.383178324461768</v>
+        <v>-1.383832939603854</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.566928794845393</v>
+        <v>-1.529497901020898</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.899930890499316</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.70602635139434</v>
+        <v>-19.86457413880764</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.137828569207821</v>
+        <v>-1.15367025564631</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.04050038988243</v>
+        <v>-0.9979111287382947</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.751450624504704</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.69512364648106</v>
+        <v>-20.84631355969731</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.038981682752789</v>
+        <v>-1.057703675816458</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6751727713869055</v>
+        <v>-0.6336047098644252</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.622087495970189</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.53360708967657</v>
+        <v>-21.68381508017969</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8876608465081195</v>
+        <v>-0.9117899606454206</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3085621072128921</v>
+        <v>-0.2542421427225706</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.510927814419924</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.18408506406488</v>
+        <v>-22.33989656018427</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6322954795802526</v>
+        <v>-0.672803064572553</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06866641456576116</v>
+        <v>0.1011876948246087</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.419010933305564</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.81446635359115</v>
+        <v>-22.95874353090698</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3316176525171717</v>
+        <v>-0.3779251276683568</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3851073742502802</v>
+        <v>0.4301187114201344</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.344411166010469</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.44533205832257</v>
+        <v>-23.58865349753094</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05992618394567229</v>
+        <v>-0.1216825764500942</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3474015420661091</v>
+        <v>0.4005693839063587</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.281299601383727</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.95786952997046</v>
+        <v>-24.09353197201643</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06002549469022194</v>
+        <v>-0.005789511695135001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6083835069130766</v>
+        <v>0.6839915558240446</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.225081306264477</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.33880317345332</v>
+        <v>-24.47005350944162</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04034776351910766</v>
+        <v>-0.02558507359182482</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5370304564256695</v>
+        <v>0.6025967090570337</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.171521494641179</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.61256322587381</v>
+        <v>-24.73546067264909</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3245292890016137</v>
+        <v>0.2601282513231632</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5259805528272528</v>
+        <v>0.5911147594648399</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.114783764941728</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.63043421925277</v>
+        <v>-24.74037028621474</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3391533912758217</v>
+        <v>0.2796881517687019</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3676029653508925</v>
+        <v>0.4434466757130116</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.047870949839667</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.60588615142453</v>
+        <v>-24.69689074847737</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1581523044889588</v>
+        <v>0.09745638851471677</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3452544044000661</v>
+        <v>0.4186760387364659</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.96794652990608</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.71550800311831</v>
+        <v>-24.79493900445906</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2731943695592058</v>
+        <v>0.2189005896745678</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05776052629860334</v>
+        <v>0.1323473755879167</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.870282977447521</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.76171073984676</v>
+        <v>-24.83373149777909</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2220689269622655</v>
+        <v>0.1890108622869072</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03668734640160852</v>
+        <v>0.02493812307439608</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.748905976092045</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.53167897891763</v>
+        <v>-24.59894723091842</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09479865103784638</v>
+        <v>0.04695937645417933</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2360176571668879</v>
+        <v>-0.1791577859252716</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.601060608643725</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.05916467705689</v>
+        <v>-24.13724717120495</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09428805122701907</v>
+        <v>0.05412086610860348</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6928866571317608</v>
+        <v>-0.644366582800324</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.42499687311291</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.14464432231052</v>
+        <v>-24.21352292756085</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1577464431008653</v>
+        <v>0.1197525802541763</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7477303137357513</v>
+        <v>-0.7195425857175151</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.219012048464901</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.71881717238338</v>
+        <v>-23.78990837681395</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06828673778335109</v>
+        <v>0.03769002604223727</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.209325635026487</v>
+        <v>-1.184476444232891</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.983390878499653</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.16073157914913</v>
+        <v>-23.22853661556643</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.08867688098610274</v>
+        <v>-0.1078047354378645</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.283650638258966</v>
+        <v>-1.270820181474075</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.723904685518275</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.81695389113108</v>
+        <v>-22.87499206962845</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2802041792577134</v>
+        <v>-0.3042809241836476</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.306706183563246</v>
+        <v>-1.298680601921268</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.4443450426001</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.08966337597036</v>
+        <v>-22.14665417024039</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4117294536056935</v>
+        <v>-0.4254109100752972</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.508445478051403</v>
+        <v>-1.510435508083345</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.149246005337187</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.27833336886859</v>
+        <v>-21.3542032638364</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3475902619840774</v>
+        <v>-0.3571476430585375</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.635048046530894</v>
+        <v>-1.615016823183053</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.8476175820913288</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.90388041529238</v>
+        <v>-20.97595354243609</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4042537486830679</v>
+        <v>-0.4253585408639303</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.883683969798114</v>
+        <v>-1.861191393516028</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.5477076868147069</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.24931764241745</v>
+        <v>-20.31674300205234</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2526841586844052</v>
+        <v>-0.2678319530722822</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.038723020049834</v>
+        <v>-2.025434332665482</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.2562224252462398</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.94489541674163</v>
+        <v>-19.99348095258728</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.535058946374753</v>
+        <v>-0.5514243249269106</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.262928706214393</v>
+        <v>-2.241915560153422</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.02058902339572532</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.4113840759413</v>
+        <v>-19.47772277444032</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2576330491585777</v>
+        <v>-0.2766037959762387</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.103464457602169</v>
+        <v>-2.106410225741557</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.274485777942842</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.85319374428431</v>
+        <v>-18.91851124316168</v>
       </c>
       <c r="F42" t="n">
-        <v>0.002249162249684804</v>
+        <v>-0.03014119498074549</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.074818498984472</v>
+        <v>-2.097887136591594</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5022354824949925</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.95100315546096</v>
+        <v>-18.03022467995625</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0072951265219335</v>
+        <v>-0.03701465397265168</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.962578186722355</v>
+        <v>-1.997744112155231</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7022832886804978</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.613588326624</v>
+        <v>-17.69037468279072</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0390123486292516</v>
+        <v>0.01764571039155466</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.165220850106591</v>
+        <v>-2.208189788033136</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8712848603527448</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.10538440721672</v>
+        <v>-17.17902861070143</v>
       </c>
       <c r="F45" t="n">
-        <v>0.009345190389900334</v>
+        <v>-0.01699652292765252</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.208255249547344</v>
+        <v>-2.254746016938314</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.008930604193133</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.72983170020181</v>
+        <v>-16.80242851945918</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02594623039320899</v>
+        <v>0.0008221012399366627</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.150793132375009</v>
+        <v>-2.216267738886481</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.116629538976745</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.06217662448514</v>
+        <v>-16.14231461017935</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03312081235047487</v>
+        <v>0.02128537058155451</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.439399856218018</v>
+        <v>-2.515309028094346</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.195819444309734</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.41168555779398</v>
+        <v>-15.47897999440046</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001489808684864692</v>
+        <v>-0.004113696931394065</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.37251128099964</v>
+        <v>-2.455228450353665</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.247143803019421</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.87579141787645</v>
+        <v>-14.95485583473764</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1508991687146426</v>
+        <v>0.1350182053676289</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.554638305830891</v>
+        <v>-2.661851173801786</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.273609214413033</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.17900596833695</v>
+        <v>-14.26037463049828</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2998764827506435</v>
+        <v>0.2819007509489536</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.464956031365067</v>
+        <v>-2.608251285967759</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.278165600987417</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.41743980433658</v>
+        <v>-13.4805447040337</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2919949164399244</v>
+        <v>0.2781039831248531</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.531347099075461</v>
+        <v>-2.69532819216808</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.262849528137905</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83053805254769</v>
+        <v>-12.88555190908862</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3771734387281942</v>
+        <v>0.3573909691343461</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.540943757058446</v>
+        <v>-2.709284586997359</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.23077182737171</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.17686555626599</v>
+        <v>-12.22425969255304</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4240962521129404</v>
+        <v>0.4075083044124735</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.561485580217114</v>
+        <v>-2.737865084100847</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.184920672027103</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.8025435257182</v>
+        <v>-11.86356674926349</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3154956000408227</v>
+        <v>0.2934612543581978</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.665582480111678</v>
+        <v>-2.8503672424198</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.128414815550054</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34638151010678</v>
+        <v>-11.39906493674189</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06612650781446629</v>
+        <v>0.04800676068151741</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.12919401604004</v>
+        <v>-3.329008742010463</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.064974243950787</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.90208112086997</v>
+        <v>-10.96536931280687</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1575893354667646</v>
+        <v>0.130278791738924</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.196200421983994</v>
+        <v>-3.400806930794489</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.9987796002839718</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14571260109777</v>
+        <v>-10.20494217915373</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0924944057377026</v>
+        <v>0.06849621462881871</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.560847240731748</v>
+        <v>-3.756564075912711</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.933031183380701</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.841041621667959</v>
+        <v>-9.897115954739071</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.07888383846049164</v>
+        <v>-0.09751418540426783</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.596641596701027</v>
+        <v>-3.796966922482278</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.8713401815074462</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.29963562225406</v>
+        <v>-9.356639508826936</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01045803613144705</v>
+        <v>-0.01850213775445101</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.880404168492598</v>
+        <v>-4.071656528404533</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.8166962464655615</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.937201402686558</v>
+        <v>-8.996221503897059</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1273515435805616</v>
+        <v>-0.1560105945010999</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.79334035459512</v>
+        <v>-3.98509022201504</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.7705380568802382</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.410694443906545</v>
+        <v>-8.453938320192766</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1510747963297692</v>
+        <v>-0.1711060196776101</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.194200483003089</v>
+        <v>-4.384628027835994</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.733383903485309</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.899151987274624</v>
+        <v>-7.957438919525988</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09276167947272128</v>
+        <v>-0.1187368083107058</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.15362743649658</v>
+        <v>-4.351255747892434</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.7058109377967257</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.414042890080148</v>
+        <v>-7.48089218839</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1520174421343735</v>
+        <v>-0.1684351898978979</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.155866220282515</v>
+        <v>-4.350627317356031</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.6880675853625864</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.062278897328651</v>
+        <v>-7.111008448505555</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3089025070867769</v>
+        <v>-0.323762270812136</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.408246542162468</v>
+        <v>-4.597233933682784</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.6794952669293236</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.687498636181401</v>
+        <v>-6.746610383511794</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2560096036062036</v>
+        <v>-0.2741555353448359</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.692912482850118</v>
+        <v>-4.878325675694643</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.6798126891399408</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.441376435059793</v>
+        <v>-6.500802397658387</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3729762371941843</v>
+        <v>-0.3868409859035722</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.685816454709903</v>
+        <v>-4.862575635376046</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.688752384974101</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.27729060354444</v>
+        <v>-6.334517059265624</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4265237558168439</v>
+        <v>-0.4405063352518074</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.801277473471084</v>
+        <v>-4.968217427005934</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.705788246507337</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.999877798631106</v>
+        <v>-6.053019455865672</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3973148281769531</v>
+        <v>-0.4040966410489672</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.800505027603423</v>
+        <v>-4.961959306247588</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.7299102584417686</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.867069478604637</v>
+        <v>-5.914843291674095</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6514233340320144</v>
+        <v>-0.6566340705630213</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.902703543585936</v>
+        <v>-5.055529994657404</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.7597414094460684</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.626655521522021</v>
+        <v>-5.687704929672989</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5973914002042109</v>
+        <v>-0.6109026567368722</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.771021161603856</v>
+        <v>-4.914342600812231</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.7932154400325335</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.503208198027385</v>
+        <v>-5.560631038291197</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6988698395304296</v>
+        <v>-0.7020119922124438</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.749314123492273</v>
+        <v>-4.883274566168815</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.8270415790798143</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.483046051651128</v>
+        <v>-5.548245719802924</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.789848251977584</v>
+        <v>-0.7908432669935552</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.649171099055911</v>
+        <v>-4.770733130941338</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.8580182616640275</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.514860347556522</v>
+        <v>-5.589381735331627</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8516439213905311</v>
+        <v>-0.8460011388657471</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.464189952205164</v>
+        <v>-4.582400354563108</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.8831304814033151</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.752878413219102</v>
+        <v>-5.826444062886761</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.743108730832622</v>
+        <v>-0.7418518697598163</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.351674701583369</v>
+        <v>-4.481262315110774</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.8993637938024739</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.955507984300496</v>
+        <v>-6.019686452830638</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.07410833127714</v>
+        <v>-1.061016028435414</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.186109439846902</v>
+        <v>-4.317713268011932</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.9042048631743028</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.484070434626661</v>
+        <v>-6.546848026752738</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9840463800289069</v>
+        <v>-0.973952214537936</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.023568500066872</v>
+        <v>-4.158144280976975</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.8962024075992403</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.949279231501714</v>
+        <v>-7.01007988589869</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.040919343573365</v>
+        <v>-1.026989133349768</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.94132265361515</v>
+        <v>-4.076710157301439</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.8743517152998159</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.521897280890286</v>
+        <v>-7.590815163049133</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.135864723781562</v>
+        <v>-1.112246209455088</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.53916638722585</v>
+        <v>-3.689557669968757</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.8376021466002871</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.94971446084937</v>
+        <v>-8.016943435941633</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.099546675698614</v>
+        <v>-1.069656948310953</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.328537419108161</v>
+        <v>-3.491680604818909</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.786426283942974</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.422150208893054</v>
+        <v>-8.487035661776648</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.283558992139074</v>
+        <v>-1.25880144746537</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.961298324397744</v>
+        <v>-3.126614832380219</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.7201171592795277</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.365450628639417</v>
+        <v>-9.429262512689991</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.207885481713897</v>
+        <v>-1.180457107260481</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.937404871711594</v>
+        <v>-3.11637665155799</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.6369103367346567</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19284489132798</v>
+        <v>-10.24548904105456</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.299950555296915</v>
+        <v>-1.268620674596665</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.762805921014336</v>
+        <v>-2.941712239346522</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.5352869315528065</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02461198316568</v>
+        <v>-11.07518754904327</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.407438361627486</v>
+        <v>-1.366367807612991</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.389950228384819</v>
+        <v>-2.570925130565998</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.4139486961154145</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.2432304393707</v>
+        <v>-12.27945684133376</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.483910502526008</v>
+        <v>-1.449922884348887</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.284635744325974</v>
+        <v>-2.462376847705248</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2683736420602687</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13088857203973</v>
+        <v>-13.15643165488394</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.582927588917982</v>
+        <v>-1.540770373767624</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.938514534099262</v>
+        <v>-2.127030602717276</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.09320753641995384</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32515534495914</v>
+        <v>-14.33183241940842</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.791095204101427</v>
+        <v>-1.734811394184846</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.696896085155208</v>
+        <v>-1.869256252066531</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1127136642311218</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42896739754506</v>
+        <v>-15.42318059968902</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.832702542532432</v>
+        <v>-1.777295916906248</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.283257869173714</v>
+        <v>-1.461980895266117</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3572203571177315</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84543673429425</v>
+        <v>-16.82832509448011</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.858834779004517</v>
+        <v>-1.794394464417542</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9780370130245546</v>
+        <v>-1.146417119871993</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.6484513159831239</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.54123035217166</v>
+        <v>-18.49102137077364</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.085920771794256</v>
+        <v>-2.022737318280086</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7674604141182325</v>
+        <v>-0.9425306877177935</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.9914270485699591</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.15603498467015</v>
+        <v>-20.10331228112652</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.307403258967736</v>
+        <v>-2.248933034476587</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.476562537277921</v>
+        <v>-0.6414339069637773</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.39003735163931</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.9843750765172</v>
+        <v>-21.92391482199411</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.518424996170677</v>
+        <v>-2.448734668144169</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6398366460170868</v>
+        <v>-0.7810633167707859</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.853011675670071</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.70954782197144</v>
+        <v>-23.63843043293518</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.623935864772147</v>
+        <v>-2.550540415041431</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4626977885685331</v>
+        <v>-0.6061239661996422</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.38553580694781</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.78729628295337</v>
+        <v>-25.70786528161262</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.799372722851277</v>
+        <v>-2.741020329085703</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4617682350667705</v>
+        <v>-0.5954144624751102</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.980846945159973</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.05683388826374</v>
+        <v>-27.96703378307234</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.671303816453512</v>
+        <v>-2.609115377955313</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5976532462610453</v>
+        <v>-0.7372041022510035</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.639716295675231</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.33850805830839</v>
+        <v>-30.24811879948912</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.161518911756261</v>
+        <v>-3.105654055530616</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9840201954232234</v>
+        <v>-1.097019861250161</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.362158996965374</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.52098184972129</v>
+        <v>-32.42460940850334</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.220015320853093</v>
+        <v>-3.166677279075901</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.204376744552315</v>
+        <v>-1.314797226719433</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.128121237152444</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.74705300959712</v>
+        <v>-34.65246112156566</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.601878517837718</v>
+        <v>-3.527160745519987</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.441033210719355</v>
+        <v>-1.538544682284531</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.936669275909814</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.25206877381878</v>
+        <v>-37.15805294711235</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.844871658580153</v>
+        <v>-3.775351530490588</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.869950144117143</v>
+        <v>-1.949957206782931</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.755692682668422</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.78709209615368</v>
+        <v>-39.68105753543854</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.735485468337532</v>
+        <v>-3.666868709144046</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.34945573569536</v>
+        <v>-2.421345570599278</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.602148435250953</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.35491163710709</v>
+        <v>-42.26208720995925</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.918227831402345</v>
+        <v>-3.85728316167411</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.71384070838628</v>
+        <v>-2.76556839691394</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.39787669614145</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.59946912859545</v>
+        <v>-44.53284239943391</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.161024587602155</v>
+        <v>-4.093376658818956</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.321768698538988</v>
+        <v>-3.360561191859023</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.219479631168715</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.90237901384938</v>
+        <v>-46.84953847958018</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.304791165107148</v>
+        <v>-4.233058437837331</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.595960796953257</v>
+        <v>-3.627473969893292</v>
       </c>
     </row>
   </sheetData>
